--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Rpsa</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>242.893198350688</v>
+        <v>2.452389333333333</v>
       </c>
       <c r="H2">
-        <v>242.893198350688</v>
+        <v>7.357168</v>
       </c>
       <c r="I2">
-        <v>0.8366352238919974</v>
+        <v>0.007993767302975028</v>
       </c>
       <c r="J2">
-        <v>0.8366352238919974</v>
+        <v>0.007993767302975028</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.7922936534243</v>
+        <v>52.80829433333333</v>
       </c>
       <c r="N2">
-        <v>48.7922936534243</v>
+        <v>158.424883</v>
       </c>
       <c r="O2">
-        <v>0.1777025886281534</v>
+        <v>0.1724060238174878</v>
       </c>
       <c r="P2">
-        <v>0.1777025886281534</v>
+        <v>0.1724060238174878</v>
       </c>
       <c r="Q2">
-        <v>11851.3162603462</v>
+        <v>129.5064977345938</v>
       </c>
       <c r="R2">
-        <v>11851.3162603462</v>
+        <v>1165.558479611344</v>
       </c>
       <c r="S2">
-        <v>0.1486722450231027</v>
+        <v>0.001378173636028168</v>
       </c>
       <c r="T2">
-        <v>0.1486722450231027</v>
+        <v>0.001378173636028168</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>242.893198350688</v>
+        <v>2.452389333333333</v>
       </c>
       <c r="H3">
-        <v>242.893198350688</v>
+        <v>7.357168</v>
       </c>
       <c r="I3">
-        <v>0.8366352238919974</v>
+        <v>0.007993767302975028</v>
       </c>
       <c r="J3">
-        <v>0.8366352238919974</v>
+        <v>0.007993767302975028</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.399498120556</v>
+        <v>81.07766966666667</v>
       </c>
       <c r="N3">
-        <v>80.399498120556</v>
+        <v>243.233009</v>
       </c>
       <c r="O3">
-        <v>0.2928167108090945</v>
+        <v>0.2646985445010758</v>
       </c>
       <c r="P3">
-        <v>0.2928167108090945</v>
+        <v>0.2646985445010758</v>
       </c>
       <c r="Q3">
-        <v>19528.49124429198</v>
+        <v>198.8340122620569</v>
       </c>
       <c r="R3">
-        <v>19528.49124429198</v>
+        <v>1789.506110358512</v>
       </c>
       <c r="S3">
-        <v>0.244980774407085</v>
+        <v>0.00211593857017778</v>
       </c>
       <c r="T3">
-        <v>0.244980774407085</v>
+        <v>0.00211593857017778</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>242.893198350688</v>
+        <v>2.452389333333333</v>
       </c>
       <c r="H4">
-        <v>242.893198350688</v>
+        <v>7.357168</v>
       </c>
       <c r="I4">
-        <v>0.8366352238919974</v>
+        <v>0.007993767302975028</v>
       </c>
       <c r="J4">
-        <v>0.8366352238919974</v>
+        <v>0.007993767302975028</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>145.380987554087</v>
+        <v>172.4159456666667</v>
       </c>
       <c r="N4">
-        <v>145.380987554087</v>
+        <v>517.247837</v>
       </c>
       <c r="O4">
-        <v>0.529480700562752</v>
+        <v>0.5628954316814363</v>
       </c>
       <c r="P4">
-        <v>0.529480700562752</v>
+        <v>0.5628954316814364</v>
       </c>
       <c r="Q4">
-        <v>35312.05304639376</v>
+        <v>422.8310260495128</v>
       </c>
       <c r="R4">
-        <v>35312.05304639376</v>
+        <v>3805.479234445616</v>
       </c>
       <c r="S4">
-        <v>0.4429822044618096</v>
+        <v>0.004499655096769079</v>
       </c>
       <c r="T4">
-        <v>0.4429822044618096</v>
+        <v>0.00449965509676908</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.4283078617297</v>
+        <v>243.5672963333334</v>
       </c>
       <c r="H5">
-        <v>47.4283078617297</v>
+        <v>730.7018890000001</v>
       </c>
       <c r="I5">
-        <v>0.1633647761080026</v>
+        <v>0.7939278902575405</v>
       </c>
       <c r="J5">
-        <v>0.1633647761080026</v>
+        <v>0.7939278902575405</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.7922936534243</v>
+        <v>52.80829433333333</v>
       </c>
       <c r="N5">
-        <v>48.7922936534243</v>
+        <v>158.424883</v>
       </c>
       <c r="O5">
-        <v>0.1777025886281534</v>
+        <v>0.1724060238174878</v>
       </c>
       <c r="P5">
-        <v>0.1777025886281534</v>
+        <v>0.1724060238174878</v>
       </c>
       <c r="Q5">
-        <v>2314.135924674528</v>
+        <v>12862.37347474489</v>
       </c>
       <c r="R5">
-        <v>2314.135924674528</v>
+        <v>115761.361272704</v>
       </c>
       <c r="S5">
-        <v>0.02903034360505077</v>
+        <v>0.1368779507571094</v>
       </c>
       <c r="T5">
-        <v>0.02903034360505077</v>
+        <v>0.1368779507571094</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.4283078617297</v>
+        <v>243.5672963333334</v>
       </c>
       <c r="H6">
-        <v>47.4283078617297</v>
+        <v>730.7018890000001</v>
       </c>
       <c r="I6">
-        <v>0.1633647761080026</v>
+        <v>0.7939278902575405</v>
       </c>
       <c r="J6">
-        <v>0.1633647761080026</v>
+        <v>0.7939278902575405</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.399498120556</v>
+        <v>81.07766966666667</v>
       </c>
       <c r="N6">
-        <v>80.399498120556</v>
+        <v>243.233009</v>
       </c>
       <c r="O6">
-        <v>0.2928167108090945</v>
+        <v>0.2646985445010758</v>
       </c>
       <c r="P6">
-        <v>0.2928167108090945</v>
+        <v>0.2646985445010758</v>
       </c>
       <c r="Q6">
-        <v>3813.212148790289</v>
+        <v>19747.86879371711</v>
       </c>
       <c r="R6">
-        <v>3813.212148790289</v>
+        <v>177730.819143454</v>
       </c>
       <c r="S6">
-        <v>0.04783593640200946</v>
+        <v>0.2101515569899808</v>
       </c>
       <c r="T6">
-        <v>0.04783593640200946</v>
+        <v>0.2101515569899808</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>243.5672963333334</v>
+      </c>
+      <c r="H7">
+        <v>730.7018890000001</v>
+      </c>
+      <c r="I7">
+        <v>0.7939278902575405</v>
+      </c>
+      <c r="J7">
+        <v>0.7939278902575405</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>172.4159456666667</v>
+      </c>
+      <c r="N7">
+        <v>517.247837</v>
+      </c>
+      <c r="O7">
+        <v>0.5628954316814363</v>
+      </c>
+      <c r="P7">
+        <v>0.5628954316814364</v>
+      </c>
+      <c r="Q7">
+        <v>41994.8857307849</v>
+      </c>
+      <c r="R7">
+        <v>377953.9715770641</v>
+      </c>
+      <c r="S7">
+        <v>0.4468983825104503</v>
+      </c>
+      <c r="T7">
+        <v>0.4468983825104503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>60.76799533333334</v>
+      </c>
+      <c r="H8">
+        <v>182.303986</v>
+      </c>
+      <c r="I8">
+        <v>0.1980783424394845</v>
+      </c>
+      <c r="J8">
+        <v>0.1980783424394845</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>52.80829433333333</v>
+      </c>
+      <c r="N8">
+        <v>158.424883</v>
+      </c>
+      <c r="O8">
+        <v>0.1724060238174878</v>
+      </c>
+      <c r="P8">
+        <v>0.1724060238174878</v>
+      </c>
+      <c r="Q8">
+        <v>3209.054183609293</v>
+      </c>
+      <c r="R8">
+        <v>28881.48765248364</v>
+      </c>
+      <c r="S8">
+        <v>0.03414989942435027</v>
+      </c>
+      <c r="T8">
+        <v>0.03414989942435027</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>47.4283078617297</v>
-      </c>
-      <c r="H7">
-        <v>47.4283078617297</v>
-      </c>
-      <c r="I7">
-        <v>0.1633647761080026</v>
-      </c>
-      <c r="J7">
-        <v>0.1633647761080026</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>145.380987554087</v>
-      </c>
-      <c r="N7">
-        <v>145.380987554087</v>
-      </c>
-      <c r="O7">
-        <v>0.529480700562752</v>
-      </c>
-      <c r="P7">
-        <v>0.529480700562752</v>
-      </c>
-      <c r="Q7">
-        <v>6895.174234957532</v>
-      </c>
-      <c r="R7">
-        <v>6895.174234957532</v>
-      </c>
-      <c r="S7">
-        <v>0.08649849610094233</v>
-      </c>
-      <c r="T7">
-        <v>0.08649849610094233</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>60.76799533333334</v>
+      </c>
+      <c r="H9">
+        <v>182.303986</v>
+      </c>
+      <c r="I9">
+        <v>0.1980783424394845</v>
+      </c>
+      <c r="J9">
+        <v>0.1980783424394845</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>81.07766966666667</v>
+      </c>
+      <c r="N9">
+        <v>243.233009</v>
+      </c>
+      <c r="O9">
+        <v>0.2646985445010758</v>
+      </c>
+      <c r="P9">
+        <v>0.2646985445010758</v>
+      </c>
+      <c r="Q9">
+        <v>4926.927451941542</v>
+      </c>
+      <c r="R9">
+        <v>44342.34706747387</v>
+      </c>
+      <c r="S9">
+        <v>0.05243104894091721</v>
+      </c>
+      <c r="T9">
+        <v>0.05243104894091721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>60.76799533333334</v>
+      </c>
+      <c r="H10">
+        <v>182.303986</v>
+      </c>
+      <c r="I10">
+        <v>0.1980783424394845</v>
+      </c>
+      <c r="J10">
+        <v>0.1980783424394845</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>172.4159456666667</v>
+      </c>
+      <c r="N10">
+        <v>517.247837</v>
+      </c>
+      <c r="O10">
+        <v>0.5628954316814363</v>
+      </c>
+      <c r="P10">
+        <v>0.5628954316814364</v>
+      </c>
+      <c r="Q10">
+        <v>10477.37138166425</v>
+      </c>
+      <c r="R10">
+        <v>94296.34243497829</v>
+      </c>
+      <c r="S10">
+        <v>0.111497394074217</v>
+      </c>
+      <c r="T10">
+        <v>0.111497394074217</v>
       </c>
     </row>
   </sheetData>
